--- a/biology/Biochimie/Aspartate_carbamyltransférase/Aspartate_carbamyltransférase.xlsx
+++ b/biology/Biochimie/Aspartate_carbamyltransférase/Aspartate_carbamyltransférase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Aspartate_carbamyltransf%C3%A9rase</t>
+          <t>Aspartate_carbamyltransférase</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,15 +490,17 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'aspartate carbamyltransférase est une transférase qui catalyse la réaction :
 carbamyl-phosphate + L-aspartate  
         ⇌
     {\displaystyle \rightleftharpoons }
   phosphate + N-carbamyl-L-aspartate.
-Cette enzyme intervient à la première étape de la biosynthèse des pyrimidines[2].
-Chez Escherichia coli, l'aspartate carbamyltransférase est constituée de 12 sous-unités ayant une masse totale de 300 kDa[3] : six sous-unités catalytiques C de 34 kDa et six sous-unités régulatrices R de 17 kDa. Ce complexe C6R6 est organisé en deux trimères catalytiques C3 et trois dimères régulateurs R2. L'agencement de ces sous-unités permet à cette enzyme de présenter une très forte régulation allostérique par rapport à ses substrats[4].
+Cette enzyme intervient à la première étape de la biosynthèse des pyrimidines.
+Chez Escherichia coli, l'aspartate carbamyltransférase est constituée de 12 sous-unités ayant une masse totale de 300 kDa : six sous-unités catalytiques C de 34 kDa et six sous-unités régulatrices R de 17 kDa. Ce complexe C6R6 est organisé en deux trimères catalytiques C3 et trois dimères régulateurs R2. L'agencement de ces sous-unités permet à cette enzyme de présenter une très forte régulation allostérique par rapport à ses substrats.
 Cette enzyme, qui ne suit pas la cinétique de Michaelis-Menten, offre un exemple de régulation allostérique à l'étape initiale d'une voie métabolique. Elle bascule entre, d'une part, un état tendu T à faible affinité pour les substrats et faible activité enzymatique et, d'autre part, l'état relâché R à affinité et activité élevées. La liaison des substrats aux sous-unités catalytiques déplace l'équilibre vers l'état R, tandis que la liaison du CTP aux sous-unités régulatrices déplace l'équilibre vers l'état T. La liaison d'ATP aux sous-unités régulatrices déplace en revanche l'équilibre vers l'état R.
 </t>
         </is>
